--- a/Data/EC/NIT-9015514162.xlsx
+++ b/Data/EC/NIT-9015514162.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D401E621-C213-4706-A463-2D96305AC8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE01C2F7-1CC7-4F63-81FE-CCE31CAD8FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0E5ECF18-5636-46CE-ACB3-E9CF6C26C8A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EE7FF7B7-D843-433D-9F04-795E3A3F32F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -62,6 +62,27 @@
     <t>AMASA CAFE BRUNCH</t>
   </si>
   <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>1093226</t>
+  </si>
+  <si>
+    <t>JESUS ALEJANDRO LEON MATA</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
     <t>PE</t>
   </si>
   <si>
@@ -72,27 +93,6 @@
   </si>
   <si>
     <t>2204</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>1093226</t>
-  </si>
-  <si>
-    <t>JESUS ALEJANDRO LEON MATA</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -506,7 +506,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A35478C0-376E-0BF7-B3F3-8F5136ED8512}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{311AE5F7-8292-B28F-8401-6CA664901F67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,7 +857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB663D2-4C1F-479D-B4E3-8AD950A6A792}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898E6D2E-5C89-4546-8CFF-572DA608E1B1}">
   <dimension ref="B2:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1035,10 +1035,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>12800</v>
+        <v>80000</v>
       </c>
       <c r="G16" s="18">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1046,16 +1046,16 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F17" s="18">
         <v>80000</v>
@@ -1069,16 +1069,16 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F18" s="18">
         <v>80000</v>
@@ -1092,16 +1092,16 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F19" s="18">
         <v>80000</v>
@@ -1115,22 +1115,22 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="24">
-        <v>80000</v>
+        <v>12800</v>
       </c>
       <c r="G20" s="24">
-        <v>2000000</v>
+        <v>1200000</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>

--- a/Data/EC/NIT-9015514162.xlsx
+++ b/Data/EC/NIT-9015514162.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE01C2F7-1CC7-4F63-81FE-CCE31CAD8FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B77AC73-063B-43A9-BFA1-871D152A3EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EE7FF7B7-D843-433D-9F04-795E3A3F32F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F7E23138-791D-4AB9-9F72-7BDEC5B976C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -62,6 +62,18 @@
     <t>AMASA CAFE BRUNCH</t>
   </si>
   <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>90086118011978</t>
+  </si>
+  <si>
+    <t>SEIR SOTILLO MONSERRAT</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
     <t>PPT</t>
   </si>
   <si>
@@ -71,28 +83,16 @@
     <t>JESUS ALEJANDRO LEON MATA</t>
   </si>
   <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
     <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>90086118011978</t>
-  </si>
-  <si>
-    <t>SEIR SOTILLO MONSERRAT</t>
-  </si>
-  <si>
-    <t>2204</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -191,22 +191,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -406,23 +406,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,10 +450,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -506,7 +506,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{311AE5F7-8292-B28F-8401-6CA664901F67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70AD22D6-B595-C8D3-49D9-F23752A42895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,7 +857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898E6D2E-5C89-4546-8CFF-572DA608E1B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D7694C-870E-41F8-A4FB-8B963A259E38}">
   <dimension ref="B2:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1035,10 +1035,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>80000</v>
+        <v>12800</v>
       </c>
       <c r="G16" s="18">
-        <v>2000000</v>
+        <v>1200000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1046,22 +1046,22 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F17" s="18">
         <v>80000</v>
       </c>
       <c r="G17" s="18">
-        <v>2000000</v>
+        <v>2394000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1069,22 +1069,22 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F18" s="18">
         <v>80000</v>
       </c>
       <c r="G18" s="18">
-        <v>2000000</v>
+        <v>2394000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1092,22 +1092,22 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
         <v>80000</v>
       </c>
       <c r="G19" s="18">
-        <v>2000000</v>
+        <v>2394000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1115,22 +1115,22 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="24">
-        <v>12800</v>
+        <v>80000</v>
       </c>
       <c r="G20" s="24">
-        <v>1200000</v>
+        <v>2394000</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
